--- a/output/StructureDefinition-ndh-Location.xlsx
+++ b/output/StructureDefinition-ndh-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/accessibility}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-accessibility}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-newpatients}
 </t>
   </si>
   <si>
@@ -835,7 +835,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -848,7 +848,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-via-intermediary}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ndh-Location.xlsx
+++ b/output/StructureDefinition-ndh-Location.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH Location</t>
+    <t>NDH Base Location</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
